--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1680946.803105936</v>
+        <v>1679624.239294001</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948781</v>
+        <v>5866991.033948783</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736052</v>
+        <v>1783678.472736053</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>202.5755482289541</v>
       </c>
       <c r="D2" t="n">
-        <v>394.1572127547868</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -676,7 +676,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.57815195584289</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>152.3340426998891</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -837,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>382.0557954179804</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -949,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>111.0639583929939</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>143.8401299338258</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>91.04473440253275</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>256.331992200052</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>300.9575343261988</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>80.34246920113334</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>355.4445328256823</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>149.3339408773904</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>259.9158446950275</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1824,16 +1824,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.8318095243222</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>360.2718058255109</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1909,7 +1909,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2013,16 +2013,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.5470574896207</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.88126300749902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>49.12308702887171</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.37144488016007</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>98.9457413571089</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>190.1198520010243</v>
       </c>
       <c r="G23" t="n">
         <v>404.4697473695408</v>
@@ -2338,7 +2338,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U23" t="n">
         <v>254.4761865113606</v>
       </c>
       <c r="V23" t="n">
-        <v>338.8736784724984</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>21.71902662773686</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>217.9354172723946</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>256.6554706538663</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H26" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313594</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>66.07896560696116</v>
       </c>
       <c r="T28" t="n">
         <v>236.8250266956711</v>
@@ -2772,16 +2772,16 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>219.0118098812075</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>183.4965574034472</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2809,10 +2809,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H29" t="n">
-        <v>158.231281714787</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.62548790105652</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>261.3919860146928</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>122.5603156417023</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U32" t="n">
         <v>254.4761865113606</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>300.2528666826528</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>132.0275965261607</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>105.0629767141853</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>402.7313126838877</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
-        <v>122.5603156417014</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.4761865113606</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
         <v>183.1891117048806</v>
@@ -3483,16 +3483,16 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>14.68284522873439</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.3781955272029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>398.6534672234582</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3517,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.4697473695408</v>
+        <v>177.7694914447158</v>
       </c>
       <c r="H38" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>46.29638119008553</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
         <v>236.8250266956711</v>
@@ -3720,13 +3720,13 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>14.07387669676028</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3757,10 +3757,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H41" t="n">
-        <v>158.231281714787</v>
+        <v>79.34530250563819</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>29.88479342715025</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.6622335149449</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>183.4965574034482</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>71.42047856476314</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U44" t="n">
         <v>254.4761865113606</v>
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>127.1526908826146</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.07896560696116</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1192.914471946194</v>
+        <v>278.7880768993413</v>
       </c>
       <c r="C2" t="n">
-        <v>782.7898812594643</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D2" t="n">
-        <v>384.6512825172554</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>374.3514710745562</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>357.3614630686478</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,19 +4330,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
         <v>1209.69369432892</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.135651610684</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.135651610684</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.135651610684</v>
+        <v>689.0092565638307</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959273</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1075.450954962253</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
         <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.4728740876129</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="C4" t="n">
-        <v>793.4728740876129</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>793.4728740876129</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="X4" t="n">
-        <v>1018.208572698848</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="Y4" t="n">
-        <v>793.4728740876129</v>
+        <v>862.4253276531883</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>570.6426643811656</v>
+        <v>956.134083381277</v>
       </c>
       <c r="C5" t="n">
-        <v>160.5180736944356</v>
+        <v>546.0094926945471</v>
       </c>
       <c r="D5" t="n">
         <v>160.0945478279002</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>1089.945929615741</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X5" t="n">
-        <v>977.7601130571609</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="Y5" t="n">
-        <v>576.823440005251</v>
+        <v>962.3148590053625</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,19 +4652,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1541.851827451147</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1340.598203386633</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1057.800055932758</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>783.9143108722797</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>504.844646381154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>266.5007842408373</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.033101815613</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.908511128883</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.484985262347</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E8" t="n">
-        <v>853.1447697792441</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F8" t="n">
-        <v>432.1143577329317</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4816,40 +4816,40 @@
         <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M9" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>454.9232824936402</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>283.8299100553567</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6759007612826</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>1105.702549639236</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>867.3586874989198</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.6229888876845</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
         <v>93.2436976906228</v>
@@ -5041,7 +5041,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
         <v>885.5886702674165</v>
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>415.1794346515229</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>244.0860622132394</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>244.0860622132394</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>244.0860622132394</v>
       </c>
       <c r="F13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>602.8791410455673</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U14" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2963.088982637275</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.152309585365</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1487.746576645189</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1204.948429191314</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>931.0626841308356</v>
       </c>
       <c r="W19" t="n">
-        <v>1622.642594311473</v>
+        <v>651.9930196397099</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.298732171156</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="Y19" t="n">
-        <v>1370.277254385804</v>
+        <v>413.6491574993933</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583775</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674173</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N20" t="n">
         <v>3127.679677710027</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4572.920798793604</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4350.714314740463</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4093.653822999973</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3743.816268336454</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3360.055967471622</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C22" t="n">
         <v>1011.484175553476</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>1011.484175553476</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C23" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D23" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F23" t="n">
         <v>894.7949994695443</v>
@@ -5989,10 +5989,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6007,7 +6007,7 @@
         <v>3926.785084202961</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
         <v>4819.791607344924</v>
@@ -6019,22 +6019,22 @@
         <v>4739.658996968401</v>
       </c>
       <c r="T23" t="n">
-        <v>4739.658996968401</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U23" t="n">
-        <v>4482.612343926623</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V23" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W23" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X23" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y23" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>546.1362616925774</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M24" t="n">
-        <v>1412.097852308888</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N24" t="n">
-        <v>1412.097852308888</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q24" t="n">
         <v>2137.637783597812</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4238.426015209275</v>
+        <v>451.3625624118155</v>
       </c>
       <c r="C25" t="n">
-        <v>4067.332642770991</v>
+        <v>280.269189973532</v>
       </c>
       <c r="D25" t="n">
-        <v>3907.837998093901</v>
+        <v>280.269189973532</v>
       </c>
       <c r="E25" t="n">
-        <v>3746.927182962221</v>
+        <v>119.3583748418515</v>
       </c>
       <c r="F25" t="n">
-        <v>3582.296057072812</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G25" t="n">
-        <v>3415.123260546202</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H25" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I25" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J25" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K25" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N25" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O25" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q25" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>4870.998205338185</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S25" t="n">
-        <v>4870.998205338185</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="T25" t="n">
-        <v>4870.998205338185</v>
+        <v>1381.211494048537</v>
       </c>
       <c r="U25" t="n">
-        <v>4870.998205338185</v>
+        <v>1381.211494048537</v>
       </c>
       <c r="V25" t="n">
-        <v>4870.998205338185</v>
+        <v>1381.211494048537</v>
       </c>
       <c r="W25" t="n">
-        <v>4870.998205338185</v>
+        <v>1102.141829557412</v>
       </c>
       <c r="X25" t="n">
-        <v>4650.861420214555</v>
+        <v>863.7979674170952</v>
       </c>
       <c r="Y25" t="n">
-        <v>4426.125721603319</v>
+        <v>639.0622688058598</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C26" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D26" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E26" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F26" t="n">
-        <v>665.804841969722</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G26" t="n">
-        <v>406.5568918143015</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I26" t="n">
         <v>97.41996410676373</v>
@@ -6229,22 +6229,22 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477955</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L26" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M26" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N26" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q26" t="n">
         <v>4819.791607344925</v>
@@ -6265,13 +6265,13 @@
         <v>3911.325541505086</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X26" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y26" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M27" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N27" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3860.939749182635</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C28" t="n">
-        <v>3860.939749182635</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D28" t="n">
-        <v>3860.939749182635</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E28" t="n">
-        <v>3860.939749182635</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F28" t="n">
-        <v>3696.308623293226</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G28" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H28" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I28" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J28" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K28" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M28" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N28" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O28" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P28" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q28" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>4604.174913274182</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.957714591686</v>
+        <v>1396.248849433913</v>
       </c>
       <c r="U28" t="n">
-        <v>4082.163799567693</v>
+        <v>1113.454934409919</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.939749182635</v>
+        <v>839.5691893494413</v>
       </c>
       <c r="W28" t="n">
-        <v>3860.939749182635</v>
+        <v>560.4995248583157</v>
       </c>
       <c r="X28" t="n">
-        <v>3860.939749182635</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y28" t="n">
-        <v>3860.939749182635</v>
+        <v>97.41996410676373</v>
       </c>
     </row>
     <row r="29">
@@ -6448,16 +6448,16 @@
         <v>1501.175469499137</v>
       </c>
       <c r="E29" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F29" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G29" t="n">
-        <v>257.2495415964476</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I29" t="n">
         <v>97.41996410676371</v>
@@ -6466,7 +6466,7 @@
         <v>365.99504637325</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6475,7 +6475,7 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O29" t="n">
         <v>3926.78508420296</v>
@@ -6542,28 +6542,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>514.8469186904415</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3941.149273701463</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C31" t="n">
-        <v>3770.05590126318</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D31" t="n">
-        <v>3610.56125658609</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E31" t="n">
-        <v>3449.650441454409</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F31" t="n">
-        <v>3285.019315565</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G31" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H31" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I31" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J31" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K31" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M31" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N31" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>4870.998205338185</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S31" t="n">
-        <v>4870.998205338185</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="T31" t="n">
-        <v>4870.998205338185</v>
+        <v>1381.211494048537</v>
       </c>
       <c r="U31" t="n">
-        <v>4870.998205338185</v>
+        <v>1098.417579024544</v>
       </c>
       <c r="V31" t="n">
-        <v>4870.998205338185</v>
+        <v>824.531833964066</v>
       </c>
       <c r="W31" t="n">
-        <v>4591.92854084706</v>
+        <v>560.4995248583157</v>
       </c>
       <c r="X31" t="n">
-        <v>4353.584678706743</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y31" t="n">
-        <v>4128.848980095508</v>
+        <v>97.41996410676371</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J32" t="n">
         <v>365.9950463732503</v>
@@ -6721,28 +6721,28 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S32" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T32" t="n">
-        <v>4747.199906710204</v>
+        <v>4649.548957580167</v>
       </c>
       <c r="U32" t="n">
-        <v>4490.153253668426</v>
+        <v>4392.502304538389</v>
       </c>
       <c r="V32" t="n">
-        <v>4140.315699004907</v>
+        <v>4042.664749874869</v>
       </c>
       <c r="W32" t="n">
-        <v>3756.555398140076</v>
+        <v>3658.904449010038</v>
       </c>
       <c r="X32" t="n">
-        <v>3355.912000309029</v>
+        <v>3258.26105117899</v>
       </c>
       <c r="Y32" t="n">
         <v>2954.975327257119</v>
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M33" t="n">
-        <v>963.3815547230743</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N33" t="n">
-        <v>1860.632488341521</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1183.652854113933</v>
+        <v>230.7811727190472</v>
       </c>
       <c r="C34" t="n">
-        <v>1012.55948167565</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D34" t="n">
-        <v>853.0648369985595</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E34" t="n">
-        <v>692.1540218668789</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F34" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G34" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H34" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J34" t="n">
         <v>116.8792779475706</v>
@@ -6864,10 +6864,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L34" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M34" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N34" t="n">
         <v>1145.132879486175</v>
@@ -6882,28 +6882,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1702.21247802243</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S34" t="n">
-        <v>1702.21247802243</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T34" t="n">
-        <v>1702.21247802243</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U34" t="n">
-        <v>1702.21247802243</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="V34" t="n">
-        <v>1702.21247802243</v>
+        <v>922.2862422154526</v>
       </c>
       <c r="W34" t="n">
-        <v>1702.21247802243</v>
+        <v>643.216577724327</v>
       </c>
       <c r="X34" t="n">
-        <v>1596.088259119213</v>
+        <v>643.216577724327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1371.352560507977</v>
+        <v>418.4808791130916</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2544.754147592629</v>
+        <v>2537.213237850827</v>
       </c>
       <c r="C35" t="n">
-        <v>2134.629556905899</v>
+        <v>2127.088647164097</v>
       </c>
       <c r="D35" t="n">
-        <v>1730.16562699896</v>
+        <v>1722.624717257157</v>
       </c>
       <c r="E35" t="n">
         <v>1315.825411515857</v>
@@ -6934,55 +6934,55 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J35" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L35" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N35" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S35" t="n">
-        <v>4870.998205338185</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T35" t="n">
-        <v>4747.199906710204</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="U35" t="n">
-        <v>4490.153253668426</v>
+        <v>4482.612343926624</v>
       </c>
       <c r="V35" t="n">
-        <v>4140.315699004907</v>
+        <v>4132.774789263105</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.555398140076</v>
+        <v>3749.014488398273</v>
       </c>
       <c r="X35" t="n">
-        <v>3355.912000309029</v>
+        <v>3348.371090567226</v>
       </c>
       <c r="Y35" t="n">
-        <v>2954.975327257119</v>
+        <v>2947.434417515316</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3505.438158345675</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C36" t="n">
-        <v>3371.443087094621</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D36" t="n">
-        <v>3254.545929314013</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E36" t="n">
-        <v>3134.053113306341</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F36" t="n">
-        <v>3025.093233488846</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G36" t="n">
-        <v>2918.195675260428</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H36" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>2830.780385847137</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J36" t="n">
-        <v>2830.780385847137</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>2830.780385847137</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>2830.780385847137</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M36" t="n">
-        <v>3696.741976463448</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N36" t="n">
-        <v>4593.992910081894</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O36" t="n">
-        <v>4870.998205338185</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>4870.998205338185</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>4870.998205338185</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
-        <v>4870.998205338185</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S36" t="n">
-        <v>4764.727353901732</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T36" t="n">
-        <v>4605.758549501928</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U36" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V36" t="n">
-        <v>4194.70230074221</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W36" t="n">
-        <v>3981.469132478539</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X36" t="n">
-        <v>3805.143150617432</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y36" t="n">
-        <v>3645.741190981262</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3266.205691422519</v>
+        <v>898.5469154552359</v>
       </c>
       <c r="C37" t="n">
-        <v>3266.205691422519</v>
+        <v>898.5469154552359</v>
       </c>
       <c r="D37" t="n">
-        <v>3266.205691422519</v>
+        <v>739.0522707781458</v>
       </c>
       <c r="E37" t="n">
-        <v>3266.205691422519</v>
+        <v>578.1414556464653</v>
       </c>
       <c r="F37" t="n">
-        <v>3266.205691422519</v>
+        <v>413.5103297570565</v>
       </c>
       <c r="G37" t="n">
-        <v>3266.205691422519</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J37" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K37" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M37" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N37" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>4870.998205338185</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S37" t="n">
-        <v>4685.958698565579</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T37" t="n">
-        <v>4446.741499883083</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U37" t="n">
-        <v>4163.947584859089</v>
+        <v>913.3780722519373</v>
       </c>
       <c r="V37" t="n">
-        <v>3890.061839798611</v>
+        <v>898.5469154552359</v>
       </c>
       <c r="W37" t="n">
-        <v>3610.992175307485</v>
+        <v>898.5469154552359</v>
       </c>
       <c r="X37" t="n">
-        <v>3372.648313167168</v>
+        <v>898.5469154552359</v>
       </c>
       <c r="Y37" t="n">
-        <v>3266.205691422519</v>
+        <v>898.5469154552359</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C38" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D38" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F38" t="n">
-        <v>894.7949994695443</v>
+        <v>665.8048419697211</v>
       </c>
       <c r="G38" t="n">
         <v>486.2396990962708</v>
@@ -7174,10 +7174,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477955</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L38" t="n">
         <v>1665.067141547876</v>
@@ -7186,13 +7186,13 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q38" t="n">
         <v>4819.791607344924</v>
@@ -7204,22 +7204,22 @@
         <v>4739.658996968401</v>
       </c>
       <c r="T38" t="n">
-        <v>4739.658996968401</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U38" t="n">
-        <v>4482.612343926623</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V38" t="n">
-        <v>4132.774789263103</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W38" t="n">
-        <v>3749.014488398272</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X38" t="n">
-        <v>3348.371090567224</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y38" t="n">
-        <v>2947.434417515314</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>778.2043133443127</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="M39" t="n">
-        <v>778.2043133443127</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="N39" t="n">
-        <v>1675.455246962759</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="O39" t="n">
         <v>2137.637783597812</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>753.5499222432264</v>
+        <v>258.1965517313041</v>
       </c>
       <c r="C40" t="n">
-        <v>582.4565498049429</v>
+        <v>258.1965517313041</v>
       </c>
       <c r="D40" t="n">
-        <v>422.961905127853</v>
+        <v>258.1965517313041</v>
       </c>
       <c r="E40" t="n">
-        <v>262.0510899961724</v>
+        <v>258.1965517313041</v>
       </c>
       <c r="F40" t="n">
-        <v>97.41996410676371</v>
+        <v>258.1965517313041</v>
       </c>
       <c r="G40" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I40" t="n">
         <v>97.41996410676371</v>
@@ -7338,10 +7338,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M40" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N40" t="n">
         <v>1145.132879486175</v>
@@ -7359,25 +7359,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T40" t="n">
-        <v>1462.995279339934</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U40" t="n">
-        <v>1180.201364315941</v>
+        <v>995.161857543334</v>
       </c>
       <c r="V40" t="n">
-        <v>1180.201364315941</v>
+        <v>721.276112482856</v>
       </c>
       <c r="W40" t="n">
-        <v>1180.201364315941</v>
+        <v>721.276112482856</v>
       </c>
       <c r="X40" t="n">
-        <v>1165.985327248506</v>
+        <v>482.9322503425394</v>
       </c>
       <c r="Y40" t="n">
-        <v>941.2496286372708</v>
+        <v>258.1965517313041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.763990092806</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C41" t="n">
-        <v>1905.639399406076</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.175469499137</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E41" t="n">
         <v>1086.835254016034</v>
       </c>
       <c r="F41" t="n">
-        <v>665.8048419697211</v>
+        <v>665.804841969722</v>
       </c>
       <c r="G41" t="n">
-        <v>257.2495415964476</v>
+        <v>257.2495415964485</v>
       </c>
       <c r="H41" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J41" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L41" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M41" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505085</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640253</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809206</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y41" t="n">
-        <v>2725.985169757296</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>514.8469186904415</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>407.2483483621277</v>
+        <v>783.736582270651</v>
       </c>
       <c r="C43" t="n">
-        <v>407.2483483621277</v>
+        <v>612.6432098323675</v>
       </c>
       <c r="D43" t="n">
-        <v>407.2483483621277</v>
+        <v>453.1485651552775</v>
       </c>
       <c r="E43" t="n">
-        <v>246.3375332304471</v>
+        <v>292.237750023597</v>
       </c>
       <c r="F43" t="n">
-        <v>246.3375332304471</v>
+        <v>127.6066241341882</v>
       </c>
       <c r="G43" t="n">
-        <v>246.3375332304471</v>
+        <v>127.6066241341882</v>
       </c>
       <c r="H43" t="n">
-        <v>97.41996410676371</v>
+        <v>127.6066241341882</v>
       </c>
       <c r="I43" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
         <v>116.8792779475706</v>
@@ -7575,10 +7575,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L43" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M43" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N43" t="n">
         <v>1145.132879486175</v>
@@ -7593,28 +7593,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>1702.21247802243</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S43" t="n">
-        <v>1702.21247802243</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T43" t="n">
-        <v>1702.21247802243</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U43" t="n">
-        <v>1419.418562998437</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="V43" t="n">
-        <v>1145.532817937959</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="W43" t="n">
-        <v>866.4631534468331</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="X43" t="n">
-        <v>628.1192913065165</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="Y43" t="n">
-        <v>407.2483483621277</v>
+        <v>971.4362886646953</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2465.07134031066</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C44" t="n">
-        <v>2054.94674962393</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D44" t="n">
-        <v>1650.482819716991</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E44" t="n">
-        <v>1236.142604233887</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F44" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G44" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H44" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J44" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
         <v>925.7208439477954</v>
       </c>
       <c r="L44" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M44" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O44" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P44" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R44" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T44" t="n">
-        <v>4667.517099428236</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U44" t="n">
-        <v>4410.470446386458</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V44" t="n">
-        <v>4060.632891722939</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W44" t="n">
-        <v>3676.872590858107</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X44" t="n">
-        <v>3276.22919302706</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y44" t="n">
-        <v>2875.29251997515</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M45" t="n">
-        <v>963.3815547230743</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N45" t="n">
-        <v>1860.632488341521</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.41996410676371</v>
+        <v>1152.595270934434</v>
       </c>
       <c r="C46" t="n">
-        <v>97.41996410676371</v>
+        <v>981.50189849615</v>
       </c>
       <c r="D46" t="n">
-        <v>97.41996410676371</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="E46" t="n">
-        <v>97.41996410676371</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="F46" t="n">
-        <v>97.41996410676371</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G46" t="n">
-        <v>97.41996410676371</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I46" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
         <v>1145.132879486175</v>
@@ -7830,28 +7830,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>1635.466048116409</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S46" t="n">
-        <v>1635.466048116409</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T46" t="n">
-        <v>1396.248849433913</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="U46" t="n">
-        <v>1113.454934409919</v>
+        <v>1152.595270934434</v>
       </c>
       <c r="V46" t="n">
-        <v>839.5691893494413</v>
+        <v>1152.595270934434</v>
       </c>
       <c r="W46" t="n">
-        <v>560.4995248583157</v>
+        <v>1152.595270934434</v>
       </c>
       <c r="X46" t="n">
-        <v>322.155662717999</v>
+        <v>1152.595270934434</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.41996410676371</v>
+        <v>1152.595270934434</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8057,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9271386512359</v>
+        <v>559.8834573428705</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8227,16 +8227,16 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>334.2508956958897</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>395.5690244730511</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8464,19 +8464,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P8" t="n">
-        <v>553.6531472828635</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>93.75312630912927</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.8785003677836</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9005,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9020,16 +9020,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>489.468180646761</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N24" t="n">
-        <v>29.3622403565494</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654517</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O27" t="n">
-        <v>315.753958306325</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654517</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M30" t="n">
-        <v>455.9909955181487</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654517</v>
+        <v>36.21939520654513</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O33" t="n">
-        <v>315.753958306325</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654517</v>
+        <v>36.21939520654513</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O36" t="n">
-        <v>315.7539583063243</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>34.34760704978729</v>
+        <v>728.888923637718</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O39" t="n">
-        <v>502.8016768707305</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458877</v>
+        <v>36.76253149458874</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861591</v>
+        <v>44.99626817861589</v>
       </c>
       <c r="R39" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>36.21939520654517</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M42" t="n">
-        <v>455.9909955181487</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654517</v>
+        <v>36.21939520654507</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>315.753958306325</v>
+        <v>432.654384230206</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.19646844041381</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>13.65087375312422</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>91.65653210080072</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>45.84716204233371</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>103.6061941434442</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.6070786176239</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>45.55681957368007</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -24189,13 +24189,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>177.3332264891055</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>226.700255924825</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>7.465500644385713</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>141.2657880027778</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
         <v>112.8724405582094</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9659758737533</v>
@@ -24426,10 +24426,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>18.02500624651881</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>147.8142767156745</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>226.7002559248237</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>117.1101460979194</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>52.13507772866581</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>226.700255924825</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>147.8142767156753</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>146.8755806602867</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
         <v>147.4283934324466</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>14.88698183152155</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
-        <v>96.67443963873666</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>96.67443963873802</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>37.35484218773999</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>130.8974468047281</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>7.465500644384576</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>96.67443963873755</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>112.8724405582094</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>256.4640423811389</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.11014609792</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.465500644386395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>226.700255924825</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>119.2046873712577</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>221.8865468221532</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>147.8142767156753</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>82.98764713105916</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.826108110177984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.8142767156758</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>30.74700734770444</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>14.88698183152164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>667171.1850513739</v>
+        <v>667171.185051374</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>667171.1850513739</v>
+        <v>667171.1850513738</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>686643.3632499889</v>
+        <v>686643.363249989</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686643.3632499888</v>
+        <v>686643.3632499889</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>686643.363249989</v>
+        <v>686643.3632499889</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>686643.363249989</v>
+        <v>686643.3632499889</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>686643.3632499889</v>
+        <v>686643.3632499888</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456070.7004908795</v>
+        <v>456070.7004908794</v>
       </c>
       <c r="C2" t="n">
-        <v>456070.7004908794</v>
+        <v>456070.7004908796</v>
       </c>
       <c r="D2" t="n">
         <v>456070.7004908795</v>
       </c>
       <c r="E2" t="n">
-        <v>405508.1345491312</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="F2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="G2" t="n">
         <v>405508.1345491313</v>
       </c>
       <c r="H2" t="n">
-        <v>405508.1345491311</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="I2" t="n">
+        <v>418923.2369159918</v>
+      </c>
+      <c r="J2" t="n">
+        <v>418923.2369159916</v>
+      </c>
+      <c r="K2" t="n">
+        <v>418923.2369159916</v>
+      </c>
+      <c r="L2" t="n">
+        <v>418923.2369159916</v>
+      </c>
+      <c r="M2" t="n">
+        <v>418923.2369159916</v>
+      </c>
+      <c r="N2" t="n">
         <v>418923.2369159917</v>
       </c>
-      <c r="J2" t="n">
-        <v>418923.2369159917</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>418923.2369159918</v>
       </c>
-      <c r="L2" t="n">
-        <v>418923.2369159917</v>
-      </c>
-      <c r="M2" t="n">
-        <v>418923.2369159919</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>418923.2369159916</v>
-      </c>
-      <c r="O2" t="n">
-        <v>418923.2369159917</v>
-      </c>
-      <c r="P2" t="n">
-        <v>418923.2369159918</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588485</v>
+        <v>45948.62261588476</v>
       </c>
       <c r="J3" t="n">
         <v>136594.800805895</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006826</v>
+        <v>160358.4505006828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>193745.8212557931</v>
       </c>
       <c r="D4" t="n">
-        <v>193745.8212557931</v>
+        <v>193745.821255793</v>
       </c>
       <c r="E4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="F4" t="n">
-        <v>59647.11115782199</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="G4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="H4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="I4" t="n">
-        <v>59023.65497279317</v>
+        <v>59023.65497279318</v>
       </c>
       <c r="J4" t="n">
         <v>59023.65497279317</v>
       </c>
       <c r="K4" t="n">
-        <v>59023.65497279319</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="L4" t="n">
         <v>59023.65497279317</v>
@@ -26453,10 +26453,10 @@
         <v>59023.65497279317</v>
       </c>
       <c r="N4" t="n">
-        <v>59023.65497279318</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="O4" t="n">
-        <v>59023.65497279319</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="P4" t="n">
         <v>59023.65497279317</v>
@@ -26499,19 +26499,19 @@
         <v>74967.83978868563</v>
       </c>
       <c r="L5" t="n">
+        <v>74967.83978868563</v>
+      </c>
+      <c r="M5" t="n">
         <v>74967.83978868564</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74967.83978868563</v>
       </c>
       <c r="N5" t="n">
         <v>74967.83978868563</v>
       </c>
       <c r="O5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="P5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22000.30426347485</v>
+        <v>22000.30426347473</v>
       </c>
       <c r="C6" t="n">
-        <v>196955.8141565887</v>
+        <v>196955.814156589</v>
       </c>
       <c r="D6" t="n">
-        <v>196955.814156589</v>
+        <v>196955.8141565889</v>
       </c>
       <c r="E6" t="n">
-        <v>82866.05024699273</v>
+        <v>82685.46965434385</v>
       </c>
       <c r="F6" t="n">
-        <v>274995.813146436</v>
+        <v>274815.2325537871</v>
       </c>
       <c r="G6" t="n">
-        <v>274995.813146436</v>
+        <v>274815.2325537869</v>
       </c>
       <c r="H6" t="n">
-        <v>274995.8131464358</v>
+        <v>274815.2325537871</v>
       </c>
       <c r="I6" t="n">
-        <v>238983.1195386281</v>
+        <v>238850.4500258607</v>
       </c>
       <c r="J6" t="n">
-        <v>148336.9413486179</v>
+        <v>148204.2718358503</v>
       </c>
       <c r="K6" t="n">
-        <v>284931.742154513</v>
+        <v>284799.0726417453</v>
       </c>
       <c r="L6" t="n">
-        <v>284931.7421545129</v>
+        <v>284799.0726417453</v>
       </c>
       <c r="M6" t="n">
-        <v>124573.2916538305</v>
+        <v>124440.6221410626</v>
       </c>
       <c r="N6" t="n">
-        <v>284931.7421545128</v>
+        <v>284799.0726417454</v>
       </c>
       <c r="O6" t="n">
-        <v>284931.7421545129</v>
+        <v>284799.0726417454</v>
       </c>
       <c r="P6" t="n">
-        <v>284931.742154513</v>
+        <v>284799.0726417453</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="P3" t="n">
-        <v>42.5994067681287</v>
+        <v>42.5994067681289</v>
       </c>
     </row>
     <row r="4">
@@ -26819,19 +26819,19 @@
         <v>1217.749551334546</v>
       </c>
       <c r="L4" t="n">
+        <v>1217.749551334546</v>
+      </c>
+      <c r="M4" t="n">
         <v>1217.749551334547</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1217.749551334546</v>
       </c>
       <c r="N4" t="n">
         <v>1217.749551334546</v>
       </c>
       <c r="O4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="P4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812888</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627591</v>
+        <v>643.4826507627597</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>203.4477965509084</v>
       </c>
       <c r="D2" t="n">
-        <v>6.262077853083269</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>150.8042867580578</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.967664280474651</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>18.36349518988959</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>285.5730054597431</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>93.3131216992391</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>144.9156891163807</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>149.7869756677925</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>103.6834669398974</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>77.55722902918573</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28073,13 +28073,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947866</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N23" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S23" t="n">
-        <v>3.9024481677537</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707871</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106926</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284848</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017078</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436417</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N24" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524811</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557571</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886138</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875664</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513096</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388269</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P25" t="n">
-        <v>9.2908607810358</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S25" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750367</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947866</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N26" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S26" t="n">
-        <v>3.9024481677537</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707871</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106926</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284848</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017078</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436417</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N27" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524811</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557571</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886138</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875664</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513096</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388269</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P28" t="n">
-        <v>9.2908607810358</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S28" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750367</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947866</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N29" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9024481677537</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707871</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106926</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284848</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017078</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436417</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N30" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524811</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557571</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886138</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875664</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513096</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388269</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P31" t="n">
-        <v>9.2908607810358</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S31" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750367</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947866</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N32" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S32" t="n">
-        <v>3.9024481677537</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707871</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106926</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284848</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017078</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436417</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N33" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524811</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557571</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886138</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875664</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513096</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388269</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P34" t="n">
-        <v>9.2908607810358</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750367</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947866</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N35" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S35" t="n">
-        <v>3.9024481677537</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707871</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106926</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284848</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017078</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436417</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N36" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524811</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557571</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886138</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875664</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513096</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388269</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P37" t="n">
-        <v>9.2908607810358</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750367</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947866</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N38" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S38" t="n">
-        <v>3.9024481677537</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707871</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106926</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284848</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017078</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436417</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N39" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524811</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557571</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886138</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875664</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513096</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388269</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P40" t="n">
-        <v>9.2908607810358</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S40" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750367</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947866</v>
+        <v>6.602265846947881</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064918</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N41" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710207</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323039</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S41" t="n">
-        <v>3.9024481677537</v>
+        <v>3.902448167753708</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707871</v>
+        <v>0.7496639321707889</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09162891267106926</v>
+        <v>0.09162891267106947</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284848</v>
+        <v>0.8849423934284869</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017078</v>
+        <v>3.154767388017085</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436417</v>
+        <v>8.656922841436437</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N42" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720065</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524811</v>
+        <v>5.689030209524824</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557571</v>
+        <v>0.3693288190557579</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006028217938886138</v>
+        <v>0.006028217938886152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875664</v>
+        <v>0.07681860236875682</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513096</v>
+        <v>0.6829872101513111</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471107</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388269</v>
+        <v>8.92492489338829</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P43" t="n">
-        <v>9.2908607810358</v>
+        <v>9.290860781035821</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987446</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S43" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004190105583750367</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710201</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323033</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707873</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09162891267106929</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284851</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J45" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N45" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875666</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513098</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471096</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388273</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L46" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O46" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987434</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004190105583750369</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>506.6900639491206</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>117.7337452574859</v>
-      </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>338.0047407346337</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35184,19 +35184,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P8" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>40.55973291537929</v>
-      </c>
-      <c r="O9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396342</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209635</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955736</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990957</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.5017150698499</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733815</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K23" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q23" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>453.2487854402158</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M24" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K26" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q26" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K29" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q29" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M30" t="n">
-        <v>421.6433884683614</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K32" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q32" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>279.8033285417088</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K35" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q35" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>279.8033285417081</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>687.6609588258071</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>694.5413165879307</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>466.8510471061143</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O41" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M42" t="n">
-        <v>421.6433884683614</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K44" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>279.8033285417088</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L46" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M46" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425647</v>
@@ -38195,7 +38195,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
